--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_KimLong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ACT-01" sheetId="54" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -268,6 +268,30 @@
   </si>
   <si>
     <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>0000000201</t>
+  </si>
+  <si>
+    <t>ID: 1205220003</t>
+  </si>
+  <si>
+    <t>ID: 1205220004</t>
+  </si>
+  <si>
+    <t>Lỗi đầu cảm biến nhiệt</t>
+  </si>
+  <si>
+    <t>Thay đầu cảm biến</t>
+  </si>
+  <si>
+    <t>Thiết bị thường xuyên không nhận nhiệt độ</t>
+  </si>
+  <si>
+    <t>Xử lý lại dây kết nối</t>
   </si>
 </sst>
 </file>
@@ -470,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -716,6 +740,9 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1258,10 +1285,18 @@
         <v>77</v>
       </c>
       <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="65"/>
+      <c r="O6" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
       <c r="U6" s="68" t="s">
@@ -1279,7 +1314,9 @@
       <c r="B7" s="59">
         <v>44887</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="59">
+        <v>44890</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>57</v>
       </c>
@@ -1291,7 +1328,9 @@
         <v>64</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>80</v>
+      </c>
       <c r="J7" s="62" t="s">
         <v>74</v>
       </c>
@@ -1328,7 +1367,9 @@
       <c r="B8" s="59">
         <v>44887</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="59">
+        <v>44890</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>57</v>
       </c>
@@ -1340,7 +1381,9 @@
         <v>64</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>81</v>
+      </c>
       <c r="J8" s="62" t="s">
         <v>74</v>
       </c>
@@ -1374,23 +1417,45 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="B9" s="59">
+        <v>44890</v>
+      </c>
+      <c r="C9" s="54">
+        <v>44893</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="38">
+        <v>22030007</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="47"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
       <c r="U9" s="69"/>
@@ -1403,23 +1468,45 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="B10" s="59">
+        <v>44890</v>
+      </c>
+      <c r="C10" s="54">
+        <v>44893</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="47"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
       <c r="U10" s="69"/>
@@ -1748,7 +1835,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2057,7 +2144,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2249,7 +2336,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2367,7 +2454,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -3342,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3554,7 +3641,9 @@
       <c r="B6" s="59">
         <v>44887</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="59">
+        <v>44890</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
